--- a/Testcase/Guest.xlsx
+++ b/Testcase/Guest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -63,27 +63,12 @@
     <t>01 - 001</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>01 - 002</t>
   </si>
   <si>
-    <t>01 - 003</t>
-  </si>
-  <si>
     <t>02 - 001</t>
   </si>
   <si>
-    <t>02- 002</t>
-  </si>
-  <si>
-    <t>02 - 003</t>
-  </si>
-  <si>
     <t>Function Name</t>
   </si>
   <si>
@@ -108,81 +93,12 @@
     <t>03</t>
   </si>
   <si>
-    <t>Thêm sản phẩm vào giỏ hàng với số lượng 1</t>
-  </si>
-  <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa</t>
-  </si>
-  <si>
-    <t>1. Con số kế bên biểu tượng xe đẩy (Cart) tăng từ 0 lên 1</t>
-  </si>
-  <si>
     <t>TMPDAT</t>
   </si>
   <si>
-    <t>Thêm sản phẩm vào giỏ hàng với số lượng 2</t>
-  </si>
-  <si>
-    <t>1. Con số kế bên biểu tượng xe đẩy (Cart) tăng từ 0 lên 2</t>
-  </si>
-  <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 1 lần
-4. Nhấn ADD TO CARD sản phẩm Tadka Pan 1 lần</t>
-  </si>
-  <si>
     <t>Xem thông tin giỏ hàng có 1 sản phẩm</t>
   </si>
   <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 1 lần
-4. Nhấn ADD TO CARD sản phẩm Tadka Pan 2 lần</t>
-  </si>
-  <si>
-    <t>Thêm 2 sản phẩm vào giỏ hàng với số lượng 1</t>
-  </si>
-  <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa
-4. Nhấn biểu tượng xe đẩy</t>
-  </si>
-  <si>
-    <t>Xem thông tin giỏ hàng với sản phẩm có số lượng là 2</t>
-  </si>
-  <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 2 lần
-4. Nhấn biểu tượng xe đẩy</t>
-  </si>
-  <si>
-    <t>1. Chuyển đến trang xem thông tin giỏ hàng
-2. Trong danh sách sản phẩm có thông tin của sản phẩm Dosa Tawa mới thêm vào với giá trị ở cột Quanlity là 1</t>
-  </si>
-  <si>
-    <t>Xem thông tin giỏ hàng với 2 sản phẩm có số lượng là 1</t>
-  </si>
-  <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 1 lần
-4. Nhấn ADD TO CARD sản phẩm Tadka Pan 1 lần
-5. Nhấn biểu tượng xe đẩy</t>
-  </si>
-  <si>
-    <t>1. Chuyển đến trang xem thông tin giỏ hàng
-2. Trong danh sách sản phẩm có thông tin của sản phẩm Dosa Tawa mới thêm vào với giá trị ở cột Quanlity là 2</t>
-  </si>
-  <si>
-    <t>1. Chuyển đến trang xem thông tin giỏ hàng
-2. Trong danh sách sản phẩm có thông tin của sản phẩm Dosa Tawa mới thêm vào với giá trị ở cột Quanlity là 1 và sản phẩm Tadka Pan và Quanlity là 1</t>
-  </si>
-  <si>
     <t>Function 02: Xem thông tin giỏ hàng</t>
   </si>
   <si>
@@ -193,13 +109,6 @@
   </si>
   <si>
     <t>Xóa sản phẩm ra khỏi giỏ hàng</t>
-  </si>
-  <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa
-4. Nhấn biểu tượng xe đẩy
-5. Nhấn nút X để xóa ra khỏi giỏ hàng</t>
   </si>
   <si>
     <t>03-002</t>
@@ -209,14 +118,6 @@
 bằng cách nhấn nút +</t>
   </si>
   <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa
-4. Nhấn biểu tượng xe đẩy
-5. Nhấn nút + ở cột Quanlity tại sản phẩm Dosa Tawa
-6. Nhấn nút cập nhật tại sản phẩm Dosa Tawa</t>
-  </si>
-  <si>
     <t>03-003</t>
   </si>
   <si>
@@ -224,64 +125,9 @@
 bằng cách nhấn nút mũi tên lên</t>
   </si>
   <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa
-4. Nhấn biểu tượng xe đẩy
-5. Nhấn nút mũi tên lên ở cột Quanlity tại sản phẩm Dosa Tawa
-6. Nhấn nút cập nhật tại sản phẩm Dosa Tawa</t>
-  </si>
-  <si>
     <t>03-004</t>
   </si>
   <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 2 lần
-4. Nhấn biểu tượng xe đẩy
-5. Nhấn nút - ở cột Quanlity tại sản phẩm Dosa Tawa
-6. Nhấn nút cập nhật tại sản phẩm Dosa Tawa</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với Quanlity là 1
-sau khi nhấn nút mũi tên lên
-4. Ở cột Quanlity của sản phẩm Dosa Tawa tăng lên 2
-5. Sau khi nhấn cập nhật ở cột Total price tăng từ $35,99 lên $71,98</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với Quanlity là 1
-sau khi nhấn nút +
-4. Ở cột Quanlity của sản phẩm Dosa Tawa tăng lên 2
-5. Sau khi nhấn cập nhật ở cột Total price tăng từ $35,99 lên $71,98</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với Quanlity là 1
-sau khi nhấn xóa
-4. Sản phẩm bị loại ra khỏi danh sách</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với số lượng (Quanlity) là 2
-sau khi nhấn nút -
-4. Ở cột Quanlity của sản phẩm Dosa Tawa giảm còn 1
-5. Sau khi nhấn cập nhật ở cột Total price giảm từ $71,98 còn $35,99</t>
-  </si>
-  <si>
     <t>03-005</t>
   </si>
   <si>
@@ -291,96 +137,798 @@
     <t>Giảm số lượng sản phẩm từ 2 xuống 1 bằng cách nhấn nút -</t>
   </si>
   <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 1 lần
-4. Nhấn biểu tượng xe đẩy
-5. Nhấn nút - ở cột Quanlity tại sản phẩm Dosa Tawa
-6. Nhấn nút cập nhật tại sản phẩm Dosa Tawa</t>
-  </si>
-  <si>
     <t>03-006</t>
   </si>
   <si>
     <t>Giảm số lượng sản phẩm từ 2 xuống 1 bằng cách nhấn nút mũi tên xuống</t>
   </si>
   <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 1 lần
-4. Nhấn biểu tượng xe đẩy
-5. Nhấn nút mũi tên xuống ở cột Quanlity tại sản phẩm Dosa Tawa
-6. Nhấn nút cập nhật tại sản phẩm Dosa Tawa</t>
-  </si>
-  <si>
-    <t>1. Chọn danh mục Household
-2. Chọn loại sản phẩm Coolware
-3. Nhấn ADD TO CARD sản phẩm Dosa Tawa 2 lần
-4. Nhấn biểu tượng xe đẩy
-5. Nhấn nút mũi tên xuống ở cột Quanlity tại sản phẩm Dosa Tawa
-6. Nhấn nút cập nhật tại sản phẩm Dosa Tawa</t>
-  </si>
-  <si>
     <t>03-007</t>
   </si>
   <si>
     <t>Giảm số lượng sản phẩm từ 1 xuống 0 bằng cách nhấn nút mũi tên xuống</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với số lượng (Quanlity) là 2
-sau khi nhấn nút mũi tên xuống
-4. Ở cột Quanlity của sản phẩm Dosa Tawa giảm từ 2 xuống 1
-5. Sau khi nhấn cập nhật Total price giảm 1 nửa từ $71,98 xuống $35,99</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với số lượng (Quanlity) là 1
-sau khi nhấn nút mũi tên xuống
-4. Ở cột Quanlity của sản phẩm Dosa Tawa giữ nguyên là 1
-5. Sau khi nhấn cập nhật Total price giữ nguyên</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với số lượng (Quanlity) là 1
-sau khi nhấn nút -
-4. Ở cột Quanlity của sản phẩm Dosa Tawa giữ nguyên giá trị 1
-5. Sau khi nhấn cập nhật Total price giữ nguyên giá trị</t>
-  </si>
-  <si>
-    <t>1. Con số bên biểu tượng xe đẩy tăng lên 1.
-sau khi nhấn xem thông tin giỏ hàng
-2. Chuyển đến trang xem thông tin giỏ hàng
-và
-3. Có thông tin sản phẩm vừa thêm vào với số lượng (Quanlity) là 1
-sau khi nhấn nút mũi tên xuống
-4. Ở cột Quanlity của sản phẩm Dosa Tawa giảm từ 1 xuống 0
-5. Sau khi nhấn cập nhật sản phẩm bị loại ra khỏi giỏ hàng</t>
   </si>
   <si>
     <t>Function 03: Cập nhật thông tin 
 giỏ hàng</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản mới</t>
+  </si>
+  <si>
+    <t>Function 04: Đăng ký tài khoản mới</t>
+  </si>
+  <si>
+    <t>04-001</t>
+  </si>
+  <si>
+    <t>Đăng ký với thành công 1 tài khoản</t>
+  </si>
+  <si>
+    <t>04-002</t>
+  </si>
+  <si>
+    <t>Để trống Fullname</t>
+  </si>
+  <si>
+    <t>Để trống Email</t>
+  </si>
+  <si>
+    <t>04-003</t>
+  </si>
+  <si>
+    <t>04-004</t>
+  </si>
+  <si>
+    <t>Để trống username</t>
+  </si>
+  <si>
+    <t>04-005</t>
+  </si>
+  <si>
+    <t>Để trống password</t>
+  </si>
+  <si>
+    <t>04-006</t>
+  </si>
+  <si>
+    <t>Để trống ô xác nhận password</t>
+  </si>
+  <si>
+    <t>Để trống Security answer</t>
+  </si>
+  <si>
+    <t>04-007</t>
+  </si>
+  <si>
+    <t>04-008</t>
+  </si>
+  <si>
+    <t>Nhập Security answer quá dài</t>
+  </si>
+  <si>
+    <t>Nhập Full name quá dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lỗi server </t>
+  </si>
+  <si>
+    <t>Đã có người dùng với username là tmpdat</t>
+  </si>
+  <si>
+    <t>04-009</t>
+  </si>
+  <si>
+    <t>04-010</t>
+  </si>
+  <si>
+    <t>04-011</t>
+  </si>
+  <si>
+    <t>Nhập username đã tồn tại</t>
+  </si>
+  <si>
+    <t>Nhập email đã sử dụng để đăng ký tài khoản khác</t>
+  </si>
+  <si>
+    <t>Đã có người dùng sử dụng email tmpdat1206@gmail.com để đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>04-012</t>
+  </si>
+  <si>
+    <t>Nhập lại password không đúng</t>
+  </si>
+  <si>
+    <t>04-013</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Function 05: Đăng nhập</t>
+  </si>
+  <si>
+    <t>05-001</t>
+  </si>
+  <si>
+    <t>05-002</t>
+  </si>
+  <si>
+    <t>05-003</t>
+  </si>
+  <si>
+    <t>Nhập sai thông tin</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Function 06: Đăng xuất</t>
+  </si>
+  <si>
+    <t>06-001</t>
+  </si>
+  <si>
+    <t>Đăng xuất trên dropdown ở header</t>
+  </si>
+  <si>
+    <t>06-002</t>
+  </si>
+  <si>
+    <t>Đăng xuất tại view quản lý thông tin cá nhân.</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng với số lượng 1 ở view xem chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Không tick vào I accept terms conditions</t>
+  </si>
+  <si>
+    <t>Chọn danh mục Household
+Chọn loại sản phẩm Coolware.
+Nhấn vào sản phẩm Dosa Tawa.
+Nhấn nút ADD TO CART sản phẩm Dosa Tawa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách loại sản phẩm thuộc danh mục Household được mở rộng xuống.
+Chuyển đến trang danh sách sản phẩm thuộc loại Coolware.
+Chuyển đến trang xem chi tiết sản phẩm Dosa Tawa.
+Con số kế bên biểu tượng xe đẩy tăng thêm 1 đơn vị.
+</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Chọn danh mục Household
+Chọn loại sản phẩm Coolware
+Nhấn ADD TO CARD sản phẩm Dosa Tawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách loại sản phẩm thuộc danh mục Household được expand xuống.
+Chuyển đến trang danh sách các sản phẩm thuộc loại Coolware
+ Con số kế bên biểu tượng xe đẩy (Cart) tăng lên 1 đơn vị
+</t>
+  </si>
+  <si>
+    <t>Nhấn vào biểu tượng xe đẩy.</t>
+  </si>
+  <si>
+    <t>Có một sản phẩm là Dosa Tawa đã được thêm vào giỏ hàng.</t>
+  </si>
+  <si>
+    <t>Hiện danh sách các sản phẩm đã được thêm trước đó, trong đó có sản phẩm Dosa Tawa.</t>
+  </si>
+  <si>
+    <t>Có 1 sản phẩm được thêm vào giỏ hàng với số lượng là 1 trước đó.</t>
+  </si>
+  <si>
+    <t>Nhấn vào biểu tượng xe đẩy.
+Nhấn vào nút - ở cột Quanlity của sản phẩm có giá trị ở cột này là 1.</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng với số lượng 1 ở view danh sách sản phẩm.</t>
+  </si>
+  <si>
+    <t>Nhấn vào biểu tượng giỏ hàng.
+Nhấn nút - cột Quanlity của sản phẩm có giá tri ở cột này là 1 đã thêm trước đó.
+Nhấn nút cập nhật tại cột Action của sản phẩm vừa giảm số lượng.</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang xem thông tin giỏ hàng.
+Giá trị ở cột Quanlity của sản phầm này giảm từ 2 xuống 1.
+Trang được tải lại, giá trị ở cột Quanlity của sản phẩm được cập nhật và giá trị dưới nút Check out bằng giá trị ở cột Unit price của sản phẩm đó.</t>
+  </si>
+  <si>
+    <t>Có 1 sản phẩm đã được thêm vào giỏ hàng với số lượng 2 trước đó.</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang xem thông tin giỏ hàng.
+Giá trị ở cột Quanlity của sản phẩm này giữ nguyên.</t>
+  </si>
+  <si>
+    <t>Chuyển đến trang xem thông tin giỏ hàng.
+Giá trị ở cột Quanlity của sản phẩm này giảm từ 1 xuống 0</t>
+  </si>
+  <si>
+    <t>Có 1 sản phẩm đã được thêm vào gió hàng trước đó với số lượng là 1.</t>
+  </si>
+  <si>
+    <t>Nhấn vào biểu tượng xe đẩy.
+Nhấn vào nút mũi tên xuống tại sản phẩm có giá trị ở cột Quanlity là 1 đã thêm vào trước đó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển đến trang xem thông tin giỏ hàng.
+Giá trị ở cột Quanlity không đổi.
+</t>
+  </si>
+  <si>
+    <t>Nhấn vào biểu tượng giỏ hàng.
+Nhấn vào nút mũi tên xuống ở cột Quanlity tại dòng của sản phẩm đã được thêm với số lượng là 2 trước đo.
+Nhấn nút cập nhật tại cột Action của sản phẩm vừa giảm số lượng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển đến trang xem thông tin giỏ hàng.
+Giá trị của san phẩm đó ở cột Quanlity giảm từ 2 xuống 1.
+Tải lại trang, giá trị ở cột Total price và giá trị số dưới nút Check out bằng giá trị ở ô Unit price của sản phẩm đó.
+</t>
+  </si>
+  <si>
+    <t>Có 1 sản phẩm đã được thêm vào giỏ hàng trước đó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn vào biểu tượng xe đẩy.
+Nhấn nút + tại cột Quanlity của một sản phẩm.
+Nhấn nút cập nhật tại cột Action của sản phẩm đó.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển đến trang xem thông tin giỏ hàng, hiện ra danh sách sản phẩm đã thêm vào giỏ hàng.
+Giá trị trong cột Quanlity tăng lên 1 đơn vị.
+Giá tị ở cột Total price của sản phẩm và giá trị dưới nút Check out tăng thêm 1 lượng bằng giá trị ở cột Unit price của sản phầm được tăng số lượng.
+</t>
+  </si>
+  <si>
+    <t>Có 1 sản phẩm đã được thêm trước đó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn vào biểu tượng xe đẩy.
+Nhấn vào nút mũi tên lên của 1 sản phẩm.
+Nhấn nút cập nhật ở cột Action.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển đến trang xem thông tin giỏ hàng, chứa danh sách các sản phẩm đã thêm vào trước đó.
+Giá trị trong cột Quanlity tăng lên 1.
+Giá trị ở cột Quanlity của sản phẩm được tăng lên 1 đơn vị, giá trị ở Cột Total price của sản phẩm tăng lên 1 lượng bằng giá trị ở cột Unit price. Giá trị dưới nút Check out cũng tăng lên 1 lượng như vậy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn vào biểu tượng giỏ hàng.
+Nhấn vào nút x ở cột Action của sản phẩm.
+Đồng ý xóa sản phẩm ra khỏi giỏ hàng.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiện danh sách sản phẩm đã thêm vào giỏ hàng.
+Hiện hộp thoại xác nhận việc xóa sản phẩm ra khỏi giỏ hàng.
+Sản phẩm bị loại ra khỏi danh sách sản phẩm trong giỏ hàng.
+</t>
+  </si>
+  <si>
+    <t>04-014</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng đăng ký 1 tài
+ khoản khi nhập password quá dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát
+Đạt
+Nhập Email address: tmpdat1206@gmail.com.
+Nhập Username và ô textbox Username: tmpdat
+Nhập Password: 200 ký tự 'a'
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: Black
+Tick vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: 200 ký tự 'a'
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: Black
+Checkbox I accept terms conditions được tick.
+Không tải lại trang, thông báo mật khẩu quá dài, yêu cầu nhập mật khẩu ngắn hơn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: 200 ký tự 'a'
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: Black
+Checkbox I accept terms conditions được tick.
+Không tải lại trang, Thông báo mật khẩu phải chứa 1 kí tự đặc biệt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát
+Đạt
+Nhập Email address: tmpdat1206@gmail.com.
+Nhập Username và ô textbox Username: tmpdat
+Nhập Password: abc123456
+Nhập lại password: abc123456
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: Black
+Tick vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t>Nhập lại password thiếu kí tự 
+đặc biệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: abc123456
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: Black
+Checkbox I accept terms conditions được tick.
+Không tải lại trang và thông báo password phải chứa kí tự đăng biệt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát
+Đạt
+Nhập Email address: tmpdat1206@gmail.com.
+Nhập Username và ô textbox Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: Black
+Tick vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: 500 ký tự 'a'
+Nhập Email address: tmpdat1206@gmail.com.
+Nhập Username và ô textbox Username: tmpdat (username này đã có tài khoản dùng để đăng ký trước đó.)
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: Black
+Tick vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com.
+Nhập Username và ô textbox Username: tmpdat (username này đã có tài khoản dùng để đăng ký trước đó.)
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: Black
+Tick vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com (email này đã có tài khoản dùng để đăng ký trước đó.)
+Nhập Username và ô textbox Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: Black
+Tick vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t>Testcase kiểm tra chức năng đăng ký 1 tài khoản người dùng của ứng dụng Supermarket khi nhập Security answer quá dài, khoảng 110 ký tự</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com
+Nhập Username và ô textbox Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: 110 ký tự 'a'
+Tick vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com
+Nhập Username và ô textbox Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Trả lời câu hỏi Security: Black
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: Black
+Không tải lại trang, hiện dialog thông báo chưa accept terms conditions.
+</t>
+  </si>
+  <si>
+    <t>Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: 110 kí tự 'a'
+Checkbox I accept terms conditions được tick.
+Không tải lại trang, hiện thông báo Security answer không hợp lệ, yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: 500 ký tự 'a'
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: Black
+Checkbox I accept terms conditions được tick.
+Thông báo full name không hợp lệ và yêu cầu nhập lại
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: Black
+Checkbox I accept terms conditions được tick.
+Tải lại trang, thông báo username đã có người dùng và yêu cầu nhập username khác.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt 
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com 
+Giá trị ô textbox Username: tmpdat 
+Giá trị ô textboc password: abc123456$ 
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors? 
+Giá trị ô textbox Security answer: Black 
+Checkbox I accept terms conditions được tick. 
+Tải lại trang, thông báo email đã có người dùng và yêu cầu nhập email khác. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+'
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị ô textbox Security answer: Black
+Checkbox I accept terms conditions được tick.
+Không tải lại trang và thông báo password nhập lại không khớp.
+</t>
+  </si>
+  <si>
+    <t>Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com
+Nhập Username và ô textbox Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Tick chọn vào checkbox I accept terms conditions.
+Nhấn nút Register.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textboc password: abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox Security answer, kèm theo thôn báo: Vui lòng nhập trường này.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com
+Nhập Username và ô textbox Username: tmpdat
+Nhập password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Nhập textbox Security answer: Black
+Tick chọn vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com
+Nhập Username và ô textbox Username: tmpdat
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Nhập textbox Security answer: Black
+Tick chọn vào checkbox I accept terms conditions.
+Nhấn nút Register.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textbox nhập password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox Password, kèm theo thôn báo: Vui lòng nhập trường này.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textbox password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox nhập lại Password, kèm theo thôn báo: Vui lòng nhập trường này.
+</t>
+  </si>
+  <si>
+    <t>Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username: tmpdat
+Giá trị ô textbox password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox nhập lại Password, kèm theo thôn báo: Vui lòng nhập trường này.</t>
+  </si>
+  <si>
+    <t>Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Nhập textbox Security answer: Black
+Tick chọn vào checkbox I accept terms conditions.
+Nhấn nút Register.</t>
+  </si>
+  <si>
+    <t>Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Password được thay đổi thành abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox Username, kèm theo thôn báo: Vui lòng nhập trường này.</t>
+  </si>
+  <si>
+    <t>Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Nhập textbox Security answer: Black
+Tick chọn vào checkbox I accept terms conditions.
+Nhấn nút Register.</t>
+  </si>
+  <si>
+    <t>Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Username được thay đổi thành tmpdat
+Giá trị ô textbox Password được thay đổi thành abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox Email address, kèm theo thôn báo: Vui lòng nhập trường này.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Username được thay đổi thành tmpdat
+Giá trị ô textbox Password được thay đổi thành abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox Email address, kèm theo thôn báo: Vui lòng nhập trường này.
+</t>
+  </si>
+  <si>
+    <t>Nhập Email address: tmpdat1206@gmail.com
+Nhập Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Nhập textbox Security answer: Black
+Tick chọn vào checkbox I accept terms conditions.
+Nhấn nút Register.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username được thay đổi thành tmpdat
+Giá trị ô textbox Password được thay đổi thành abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Không tải lại trang, hiện viền đỏ ở textbox Full name, kèm theo thôn báo: Vui lòng nhập trường này.
+</t>
+  </si>
+  <si>
+    <t>Ở trang đăng ký, nhập Fullname: Trương Minh Phát Đạt
+Nhập Email address: tmpdat1206@gmail.com
+Nhập Username: tmpdat
+Nhập Password: abc123456$
+Nhập lại password: abc123456$
+Chọn câu hỏi: What is your favorite colors?
+Nhập textbox Security answer: Black
+Tick chọn vào checkbox I accept terms conditions.
+Nhấn nút Register.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị  các  textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username được thay đổi thành tmpdat
+Giá trị ô textbox Password được thay đổi thành abc123456$
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Tải trang và thông báo đã đăng ký thành công.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị  các  textbox Full name: Trương Minh Phát Đạt
+Giá trị ô textbox Email address được thay đổi thành tmpdat1206@gmail.com
+Giá trị ô textbox Username được thay đổi thành tmpdat
+Giá trị ô textbox Password được thay đổi th
+Giá trị ô textbox nhập lại password được thay đổi thành abc123456$
+Ô textbox câu hỏi giá trị là What is your favorite colors?
+Giá trị textbox Security answer là Black
+Checkbox I accept terms conditions được tick vào.
+Tải trang và thông báo đã đăng ký thành công.
+</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Nhập username: abcde
+Nhập password: abc123456
+Nhấn nút Log in</t>
+  </si>
+  <si>
+    <t>Ô textbox Password có giá trị là abcde
+Ô textbox Password có giá trị là abc123456
+Tải lại trang và thông báo thông tin đăng nhập không đúng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ô textbox Password có giá trị là abcde
+Ô textbox Password có giá trị là abc123456
+Tải lại trang và thông báo thông tin đăng nhập không đúng.
+</t>
+  </si>
+  <si>
+    <t>Nhập username: tmpdat
+Nhấn nút Log in</t>
+  </si>
+  <si>
+    <t>Ô textbox Password có giá trị là tmpdat
+Hiện viền đỏ ở textbox Password, kèm thông báo vui lòng điền trường này.</t>
+  </si>
+  <si>
+    <t>Nhập password: abc123456$
+Nhấn nút Log in</t>
+  </si>
+  <si>
+    <t>Ô textbox Password có giá trị là abc123456$
+Hiện viền đỏ ở textbox Username, kèm thông báo vui lòng điền trường này.</t>
+  </si>
+  <si>
+    <t>Nhập username: tmpdat
+Nhập password: abc123456$
+Nhấn nút Log in</t>
+  </si>
+  <si>
+    <t>Ô textbox Username có giá trị là tmpdat
+Ô textbox Password có giá trị là abc123456$
+Đăng nhập thành công, chuyển đến trang home hoặc trang trước khi đăng nhập.</t>
+  </si>
+  <si>
+    <t>Có 1 tài khoản đã đăng ký thành công.</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập thành công.</t>
+  </si>
+  <si>
+    <t>Click vào tên người dùng trên phần header, ngay trước nút Help
+Chọn Logout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danh sách chức năng được mở rộng xuống.
+Đăng xuất ra và chuyển sang trang Home hoặc trang đăng nhập.
+</t>
+  </si>
+  <si>
+    <t>Danh sách chức năng được mở rộng xuống.
+Đăng xuất ra và chuyển sang trang Home hoặc trang đăng nhập.</t>
+  </si>
+  <si>
+    <t>Nhấn chọn vào dropdown tên người dùng ngay bên trai nút Help trên header.
+Chọn My account
+Nhấn nút Logout phía bên trái dưới trang quản lý thông tin cá nhân.</t>
+  </si>
+  <si>
+    <t>Danh sách chức năng cho người dùng được mở rộng xuống.
+di chuyển đến trang quản lý thông tin cá nhân.
+Đăng xuất ra và chuyển đến trang đăng nhập.</t>
+  </si>
+  <si>
+    <t>05-004</t>
+  </si>
+  <si>
+    <t>04-015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -398,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -406,11 +954,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -420,6 +977,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,13 +1021,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -461,7 +1047,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D7" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Function Name"/>
@@ -473,7 +1059,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J17" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0" dataDxfId="6">
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Test case name"/>
@@ -777,10 +1363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -807,26 +1393,50 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -839,20 +1449,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="43.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="14" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
@@ -869,13 +1479,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -893,382 +1503,930 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="7" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3">
-        <v>43053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I8" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I9" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I11" s="3">
-        <v>43053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I12" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I13" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="228" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D22" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="213.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="215.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="3">
-        <v>43015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="228" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D26" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="309.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="214.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="3">
-        <v>43053</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="3">
-        <v>43053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="228" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="3">
-        <v>43053</v>
+      <c r="B32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="7">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="7">
+        <v>43072</v>
       </c>
     </row>
   </sheetData>

--- a/Testcase/Guest.xlsx
+++ b/Testcase/Guest.xlsx
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
